--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_0_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_0_sine_01_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.609024107869118e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>8.970602038971265e-13</v>
+        <v>6.483054158395075e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>38.01595043855866</v>
+        <v>41.35926004741992</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[27.99925579728133, 48.032645079835994]</t>
+          <t>[31.41129562236177, 51.307224472478076]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.615463401411944e-12</v>
+        <v>3.574918139293004e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>5.230926802823888e-12</v>
+        <v>7.149836278586008e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.452868674633118</v>
+        <v>1.352237078121732</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1635528346628865, 1.7421845146033492]</t>
+          <t>[1.0880791372793475, 1.6163950189641163]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.93189955061673</v>
+        <v>58.56517641735933</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[48.85370779904907, 61.010091302184385]</t>
+          <t>[52.59085429858379, 64.53949853613487]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.98030030030078</v>
+        <v>19.72948948948988</v>
       </c>
       <c r="X2" t="n">
-        <v>18.78356356356401</v>
+        <v>18.67255255255292</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.17703703703755</v>
+        <v>20.78642642642684</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.91000000000014</v>
+        <v>24.23000000000035</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.349120897804369e-12</v>
+        <v>3.987921104453562e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>1.186279145091057e-11</v>
+        <v>1.149632265764169e-12</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>42.88128345939755</v>
+        <v>44.64317385028245</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.965110890826878, 54.797456027968224]</t>
+          <t>[30.299825434352456, 58.98652226621245]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5.210254450105367e-11</v>
+        <v>7.424206360795438e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>5.210254450105367e-11</v>
+        <v>7.424206360795438e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.446579199851156</v>
+        <v>0.5723422051585008</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.7736318885131563, -1.1195265111891555]</t>
+          <t>[0.25786846606042335, 0.8868159442565782]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>0.0004428945447665367</v>
       </c>
       <c r="R3" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>0.0004428945447665367</v>
       </c>
       <c r="S3" t="n">
-        <v>58.81309055382087</v>
+        <v>60.29554044297622</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.24564872246118, 66.38053238518056]</t>
+          <t>[52.89935373520612, 67.69172715074632]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>5.274574574574608</v>
+        <v>22.02286286286318</v>
       </c>
       <c r="X3" t="n">
-        <v>4.082062062062088</v>
+        <v>20.81015015015045</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.467087087087128</v>
+        <v>23.23557557557591</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_0_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_0_sine_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.14000000000049</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.288968931589807e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>6.483054158395075e-16</v>
+        <v>1.999932786428213e-12</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.35926004741992</v>
+        <v>36.84046330936498</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[31.41129562236177, 51.307224472478076]</t>
+          <t>[25.361880421750264, 48.31904619697969]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.574918139293004e-14</v>
+        <v>1.729866472288677e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>7.149836278586008e-14</v>
+        <v>3.459732944577354e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>1.352237078121732</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0880791372793475, 1.6163950189641163]</t>
+          <t>[0.735868549489501, 1.415131825941348]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.71262345918899e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.71262345918899e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>58.56517641735933</v>
+        <v>56.00799887860224</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.59085429858379, 64.53949853613487]</t>
+          <t>[49.91933118277065, 62.09666657443384]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.72948948948988</v>
+        <v>20.77045045045085</v>
       </c>
       <c r="X2" t="n">
-        <v>18.67255255255292</v>
+        <v>19.41585585585623</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.78642642642684</v>
+        <v>22.12504504504547</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.23000000000035</v>
+        <v>22.22000000000003</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.987921104453562e-13</v>
+        <v>1.366684543313568e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>1.149632265764169e-12</v>
+        <v>5.271027279369472e-12</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.64317385028245</v>
+        <v>38.76291840756034</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.299825434352456, 58.98652226621245]</t>
+          <t>[26.601496171185467, 50.92434064393522]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.424206360795438e-09</v>
+        <v>3.539518456108226e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>7.424206360795438e-09</v>
+        <v>3.539518456108226e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5723422051585008</v>
+        <v>-2.842842601446619</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.25786846606042335, 0.8868159442565782]</t>
+          <t>[-3.182474239672542, -2.5032109632206967]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0004428945447665367</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0004428945447665367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.29554044297622</v>
+        <v>56.16448184062984</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.89935373520612, 67.69172715074632]</t>
+          <t>[49.380578587016934, 62.948385094242745]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.02286286286318</v>
+        <v>10.05349349349351</v>
       </c>
       <c r="X3" t="n">
-        <v>20.81015015015045</v>
+        <v>8.852412412412429</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.23557557557591</v>
+        <v>11.25457457457459</v>
       </c>
     </row>
   </sheetData>
